--- a/tests_target/us_states_testing_progress.xlsx
+++ b/tests_target/us_states_testing_progress.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yygu/MIT/github/covid19_modeling/related_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yygu/MIT/github/covid19_modeling/related_data/testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768829C8-E7DB-0B4B-A617-C512BE43728C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99094839-8623-DB46-A2D6-CE4D14B0295A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2920" yWindow="2920" windowWidth="55800" windowHeight="27640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2920" yWindow="2920" windowWidth="55800" windowHeight="27640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="testing_us_2020-05-24" sheetId="1" r:id="rId1"/>
     <sheet name="testing_us_2020-05-30" sheetId="3" r:id="rId2"/>
+    <sheet name="testing_us_2020-06-07" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="87">
   <si>
     <t>Alabama</t>
   </si>
@@ -330,6 +331,12 @@
   </si>
   <si>
     <t>Testing Progress in US States (as of May 30, 2020)</t>
+  </si>
+  <si>
+    <t>Testing Progress in US States (as of June 7, 2020)</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
   </si>
 </sst>
 </file>
@@ -2423,7 +2430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A28109F3-BDB7-B843-B67E-83B05EA99138}">
   <dimension ref="A1:AA58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="151" zoomScaleNormal="151" workbookViewId="0">
+    <sheetView zoomScale="151" zoomScaleNormal="151" workbookViewId="0">
       <selection activeCell="AA28" sqref="AA28"/>
     </sheetView>
   </sheetViews>
@@ -3789,4 +3796,1390 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E95C5B-F107-1B46-A003-4B19FA774E00}">
+  <dimension ref="A1:AA58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="151" zoomScaleNormal="151" workbookViewId="0">
+      <selection activeCell="Z34" sqref="Z34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="5" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12" style="5" customWidth="1"/>
+    <col min="6" max="6" width="8.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="3.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="11" width="11.6640625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="12" style="5" customWidth="1"/>
+    <col min="13" max="13" width="8.83203125" customWidth="1"/>
+    <col min="14" max="14" width="3.33203125" customWidth="1"/>
+    <col min="15" max="15" width="16.83203125" customWidth="1"/>
+    <col min="16" max="17" width="11.5" style="5" customWidth="1"/>
+    <col min="18" max="18" width="11.6640625" style="5" customWidth="1"/>
+    <col min="19" max="19" width="12" style="5" customWidth="1"/>
+    <col min="20" max="20" width="8.6640625" customWidth="1"/>
+    <col min="21" max="21" width="3.33203125" customWidth="1"/>
+    <col min="22" max="22" width="16.6640625" customWidth="1"/>
+    <col min="23" max="24" width="11.6640625" style="5" customWidth="1"/>
+    <col min="25" max="25" width="11.5" style="5" customWidth="1"/>
+    <col min="26" max="26" width="12" style="5" customWidth="1"/>
+    <col min="27" max="27" width="8.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A1" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A2" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="29"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="29"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A3" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="H3" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="O3" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="V3" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="W3" s="27"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="27"/>
+    </row>
+    <row r="4" spans="1:27" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y4" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z4" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A5" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="12">
+        <v>1539.2857142857099</v>
+      </c>
+      <c r="C5" s="13">
+        <v>0.35517544962897701</v>
+      </c>
+      <c r="D5" s="19">
+        <v>5.9396751740139198E-3</v>
+      </c>
+      <c r="E5" s="12">
+        <v>17</v>
+      </c>
+      <c r="F5" s="13">
+        <v>90.546218487394896</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="10">
+        <v>1566.42857142857</v>
+      </c>
+      <c r="J5" s="11">
+        <v>1.0735627836611099</v>
+      </c>
+      <c r="K5" s="20">
+        <v>4.0994072047423599E-2</v>
+      </c>
+      <c r="L5" s="10">
+        <v>1650</v>
+      </c>
+      <c r="M5" s="11">
+        <v>0.94935064935064895</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="P5" s="8">
+        <v>8404.5</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>-2.76588711676721E-2</v>
+      </c>
+      <c r="R5" s="21">
+        <v>5.3389765686749399E-2</v>
+      </c>
+      <c r="S5" s="8">
+        <v>12804</v>
+      </c>
+      <c r="T5" s="9">
+        <v>0.65639643861293295</v>
+      </c>
+      <c r="V5" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="W5" s="6">
+        <v>9904.3571428571395</v>
+      </c>
+      <c r="X5" s="7">
+        <v>0.454674206103586</v>
+      </c>
+      <c r="Y5" s="22">
+        <v>9.8427099184341602E-2</v>
+      </c>
+      <c r="Z5" s="6">
+        <v>30080</v>
+      </c>
+      <c r="AA5" s="7">
+        <v>0.32926719224924</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="12">
+        <v>1007.28571428571</v>
+      </c>
+      <c r="C6" s="13">
+        <v>0.24542965645147</v>
+      </c>
+      <c r="D6" s="19">
+        <v>4.3256275705573603E-3</v>
+      </c>
+      <c r="E6" s="12">
+        <v>33</v>
+      </c>
+      <c r="F6" s="13">
+        <v>30.523809523809501</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="10">
+        <v>24336.6428571428</v>
+      </c>
+      <c r="J6" s="11">
+        <v>0.245619294480658</v>
+      </c>
+      <c r="K6" s="20">
+        <v>3.1665947586385003E-2</v>
+      </c>
+      <c r="L6" s="10">
+        <v>26516</v>
+      </c>
+      <c r="M6" s="11">
+        <v>0.91780973212938799</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="P6" s="8">
+        <v>1052.2857142857099</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>-0.27123423200593599</v>
+      </c>
+      <c r="R6" s="21">
+        <v>3.0613630192777599E-2</v>
+      </c>
+      <c r="S6" s="8">
+        <v>1609</v>
+      </c>
+      <c r="T6" s="9">
+        <v>0.65399982242741705</v>
+      </c>
+      <c r="V6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="W6" s="6">
+        <v>4340.9285714285697</v>
+      </c>
+      <c r="X6" s="7">
+        <v>0.15835318783951199</v>
+      </c>
+      <c r="Y6" s="22">
+        <v>7.5444687607983799E-2</v>
+      </c>
+      <c r="Z6" s="6">
+        <v>13514</v>
+      </c>
+      <c r="AA6" s="7">
+        <v>0.32121715046829702</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A7" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="12">
+        <v>150.28571428571399</v>
+      </c>
+      <c r="C7" s="13">
+        <v>0.3444089456869</v>
+      </c>
+      <c r="D7" s="19">
+        <v>6.6539923954372603E-3</v>
+      </c>
+      <c r="E7" s="12">
+        <v>17</v>
+      </c>
+      <c r="F7" s="13">
+        <v>8.8403361344537803</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="10">
+        <v>3169.2857142857101</v>
+      </c>
+      <c r="J7" s="11">
+        <v>-6.5599663051489898E-2</v>
+      </c>
+      <c r="K7" s="20">
+        <v>7.9738562091503207E-2</v>
+      </c>
+      <c r="L7" s="10">
+        <v>4381</v>
+      </c>
+      <c r="M7" s="11">
+        <v>0.72341604982554497</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="8">
+        <v>3836.4285714285702</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>0.43154135238145902</v>
+      </c>
+      <c r="R7" s="21">
+        <v>6.4959970210389101E-2</v>
+      </c>
+      <c r="S7" s="8">
+        <v>6204</v>
+      </c>
+      <c r="T7" s="9">
+        <v>0.618379847103251</v>
+      </c>
+      <c r="V7" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="W7" s="6">
+        <v>1221.5</v>
+      </c>
+      <c r="X7" s="7">
+        <v>-0.19479235332893799</v>
+      </c>
+      <c r="Y7" s="22">
+        <v>6.75399099467867E-2</v>
+      </c>
+      <c r="Z7" s="6">
+        <v>4117</v>
+      </c>
+      <c r="AA7" s="7">
+        <v>0.29669662375516098</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A8" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="12">
+        <v>904.21428571428498</v>
+      </c>
+      <c r="C8" s="13">
+        <v>0.43721616712079903</v>
+      </c>
+      <c r="D8" s="19">
+        <v>7.2675566790425701E-3</v>
+      </c>
+      <c r="E8" s="12">
+        <v>116</v>
+      </c>
+      <c r="F8" s="13">
+        <v>7.79495073891625</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="10">
+        <v>4623.1428571428496</v>
+      </c>
+      <c r="J8" s="11">
+        <v>0.270692633893513</v>
+      </c>
+      <c r="K8" s="20">
+        <v>2.7254187009455502E-2</v>
+      </c>
+      <c r="L8" s="10">
+        <v>6543</v>
+      </c>
+      <c r="M8" s="11">
+        <v>0.706578458985611</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="P8" s="8">
+        <v>10083.357142857099</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>0.71460671427877298</v>
+      </c>
+      <c r="R8" s="21">
+        <v>4.0335205820057098E-2</v>
+      </c>
+      <c r="S8" s="8">
+        <v>16517</v>
+      </c>
+      <c r="T8" s="9">
+        <v>0.61048357103936202</v>
+      </c>
+      <c r="V8" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="W8" s="6">
+        <v>5170.6428571428496</v>
+      </c>
+      <c r="X8" s="7">
+        <v>-7.1304860995291597E-2</v>
+      </c>
+      <c r="Y8" s="22">
+        <v>4.9151114119548499E-2</v>
+      </c>
+      <c r="Z8" s="6">
+        <v>19231</v>
+      </c>
+      <c r="AA8" s="7">
+        <v>0.26887020212900298</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A9" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="12">
+        <v>316.85714285714198</v>
+      </c>
+      <c r="C9" s="13">
+        <v>-0.64678716458316698</v>
+      </c>
+      <c r="D9" s="19">
+        <v>4.9594229035166797E-3</v>
+      </c>
+      <c r="E9" s="12">
+        <v>42</v>
+      </c>
+      <c r="F9" s="13">
+        <v>7.5442176870748296</v>
+      </c>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="O9" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="P9" s="8">
+        <v>2683.2142857142799</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>1.5105658541858E-2</v>
+      </c>
+      <c r="R9" s="21">
+        <v>9.8948489285238903E-2</v>
+      </c>
+      <c r="S9" s="8">
+        <v>4662</v>
+      </c>
+      <c r="T9" s="9">
+        <v>0.57555003983575403</v>
+      </c>
+      <c r="V9" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="W9" s="6">
+        <v>5840.0714285714203</v>
+      </c>
+      <c r="X9" s="7">
+        <v>1.0748363193422299</v>
+      </c>
+      <c r="Y9" s="22">
+        <v>3.2900771761597801E-2</v>
+      </c>
+      <c r="Z9" s="6">
+        <v>22556</v>
+      </c>
+      <c r="AA9" s="7">
+        <v>0.25891432118156699</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A10" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="12">
+        <v>1045</v>
+      </c>
+      <c r="C10" s="13">
+        <v>0.66193343178461805</v>
+      </c>
+      <c r="D10" s="19">
+        <v>3.526999316473E-2</v>
+      </c>
+      <c r="E10" s="12">
+        <v>240</v>
+      </c>
+      <c r="F10" s="13">
+        <v>4.3541666666666599</v>
+      </c>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="O10" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="P10" s="8">
+        <v>5893.2142857142799</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>0.65506519558676002</v>
+      </c>
+      <c r="R10" s="21">
+        <v>4.5185140294527602E-2</v>
+      </c>
+      <c r="S10" s="8">
+        <v>10247</v>
+      </c>
+      <c r="T10" s="9">
+        <v>0.57511606184388397</v>
+      </c>
+      <c r="V10" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="W10" s="6">
+        <v>10285.0714285714</v>
+      </c>
+      <c r="X10" s="7">
+        <v>0.730037246185269</v>
+      </c>
+      <c r="Y10" s="22">
+        <v>5.3169989791028598E-2</v>
+      </c>
+      <c r="Z10" s="6">
+        <v>44451</v>
+      </c>
+      <c r="AA10" s="7">
+        <v>0.231379978596014</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A11" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="12">
+        <v>605.28571428571399</v>
+      </c>
+      <c r="C11" s="13">
+        <v>6.09740828846876E-2</v>
+      </c>
+      <c r="D11" s="19">
+        <v>1.48690110927543E-2</v>
+      </c>
+      <c r="E11" s="12">
+        <v>174</v>
+      </c>
+      <c r="F11" s="13">
+        <v>3.47865353037766</v>
+      </c>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="O11" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="P11" s="8">
+        <v>5543.0714285714203</v>
+      </c>
+      <c r="Q11" s="9">
+        <v>-8.7152402013833397E-2</v>
+      </c>
+      <c r="R11" s="21">
+        <v>3.6867131425331497E-2</v>
+      </c>
+      <c r="S11" s="8">
+        <v>10461</v>
+      </c>
+      <c r="T11" s="9">
+        <v>0.52987968918568196</v>
+      </c>
+      <c r="V11" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="W11" s="6">
+        <v>1747.8571428571399</v>
+      </c>
+      <c r="X11" s="7">
+        <v>-0.10172166954223399</v>
+      </c>
+      <c r="Y11" s="22">
+        <v>3.8005721291377199E-2</v>
+      </c>
+      <c r="Z11" s="6">
+        <v>7722</v>
+      </c>
+      <c r="AA11" s="7">
+        <v>0.22634772634772601</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A12" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="12">
+        <v>56</v>
+      </c>
+      <c r="C12" s="13">
+        <v>1.44999999999999</v>
+      </c>
+      <c r="D12" s="19">
+        <v>2.5510204081632599E-3</v>
+      </c>
+      <c r="E12" s="12">
+        <v>17</v>
+      </c>
+      <c r="F12" s="13">
+        <v>3.2941176470588198</v>
+      </c>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="O12" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="P12" s="8">
+        <v>23612.214285714199</v>
+      </c>
+      <c r="Q12" s="9">
+        <v>0.20905812473483201</v>
+      </c>
+      <c r="R12" s="21">
+        <v>5.76094091738234E-2</v>
+      </c>
+      <c r="S12" s="8">
+        <v>47388</v>
+      </c>
+      <c r="T12" s="9">
+        <v>0.498274126059641</v>
+      </c>
+      <c r="V12" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="W12" s="6">
+        <v>4523.2142857142799</v>
+      </c>
+      <c r="X12" s="7">
+        <v>0.31434205064342002</v>
+      </c>
+      <c r="Y12" s="22">
+        <v>6.5187524674299197E-2</v>
+      </c>
+      <c r="Z12" s="6">
+        <v>20774</v>
+      </c>
+      <c r="AA12" s="7">
+        <v>0.217734393266308</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A13" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="12">
+        <v>1855.6428571428501</v>
+      </c>
+      <c r="C13" s="13">
+        <v>0.14208467050599999</v>
+      </c>
+      <c r="D13" s="19">
+        <v>1.5935948265907E-2</v>
+      </c>
+      <c r="E13" s="12">
+        <v>784</v>
+      </c>
+      <c r="F13" s="13">
+        <v>2.3668913994168999</v>
+      </c>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="O13" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="P13" s="8">
+        <v>4732.6428571428496</v>
+      </c>
+      <c r="Q13" s="9">
+        <v>1.7444449563120901E-2</v>
+      </c>
+      <c r="R13" s="21">
+        <v>3.08948488461596E-2</v>
+      </c>
+      <c r="S13" s="8">
+        <v>9669</v>
+      </c>
+      <c r="T13" s="9">
+        <v>0.489465596974129</v>
+      </c>
+      <c r="V13" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="W13" s="6">
+        <v>2900.5</v>
+      </c>
+      <c r="X13" s="7">
+        <v>-4.0409291773991503E-2</v>
+      </c>
+      <c r="Y13" s="22">
+        <v>3.6668554682690098E-2</v>
+      </c>
+      <c r="Z13" s="6">
+        <v>13341</v>
+      </c>
+      <c r="AA13" s="7">
+        <v>0.21741248781950301</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A14" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="12">
+        <v>2568</v>
+      </c>
+      <c r="C14" s="13">
+        <v>1.02565543597381E-2</v>
+      </c>
+      <c r="D14" s="19">
+        <v>2.1528704939919801E-2</v>
+      </c>
+      <c r="E14" s="12">
+        <v>1098</v>
+      </c>
+      <c r="F14" s="13">
+        <v>2.3387978142076502</v>
+      </c>
+      <c r="O14" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="8">
+        <v>56642.4285714285</v>
+      </c>
+      <c r="Q14" s="9">
+        <v>0.31565726951766598</v>
+      </c>
+      <c r="R14" s="21">
+        <v>4.4622027404999202E-2</v>
+      </c>
+      <c r="S14" s="8">
+        <v>118734</v>
+      </c>
+      <c r="T14" s="9">
+        <v>0.47705314881523803</v>
+      </c>
+      <c r="V14" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="W14" s="6">
+        <v>4497.7142857142799</v>
+      </c>
+      <c r="X14" s="7">
+        <v>0.10118568780385399</v>
+      </c>
+      <c r="Y14" s="22">
+        <v>9.6954008385211496E-2</v>
+      </c>
+      <c r="Z14" s="6">
+        <v>21912</v>
+      </c>
+      <c r="AA14" s="7">
+        <v>0.20526260887706599</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A15" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="12">
+        <v>1532.8571428571399</v>
+      </c>
+      <c r="C15" s="13">
+        <v>0.53691900021485295</v>
+      </c>
+      <c r="D15" s="19">
+        <v>2.381174277726E-2</v>
+      </c>
+      <c r="E15" s="12">
+        <v>792</v>
+      </c>
+      <c r="F15" s="13">
+        <v>1.9354256854256799</v>
+      </c>
+      <c r="O15" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="P15" s="8">
+        <v>6227.2857142857101</v>
+      </c>
+      <c r="Q15" s="9">
+        <v>2.8113870610156001E-2</v>
+      </c>
+      <c r="R15" s="21">
+        <v>4.3541097933059499E-2</v>
+      </c>
+      <c r="S15" s="8">
+        <v>14520</v>
+      </c>
+      <c r="T15" s="9">
+        <v>0.42887642660369901</v>
+      </c>
+      <c r="V15" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="W15" s="6">
+        <v>8741.1428571428496</v>
+      </c>
+      <c r="X15" s="7">
+        <v>9.90704566886704E-2</v>
+      </c>
+      <c r="Y15" s="22">
+        <v>7.1280316401908794E-2</v>
+      </c>
+      <c r="Z15" s="6">
+        <v>47083</v>
+      </c>
+      <c r="AA15" s="7">
+        <v>0.18565390602006701</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A16" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="12">
+        <v>4335.5714285714203</v>
+      </c>
+      <c r="C16" s="13">
+        <v>-6.6672817295568607E-2</v>
+      </c>
+      <c r="D16" s="19">
+        <v>1.71834327325447E-2</v>
+      </c>
+      <c r="E16" s="12">
+        <v>2253</v>
+      </c>
+      <c r="F16" s="13">
+        <v>1.9243548284826499</v>
+      </c>
+      <c r="O16" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="P16" s="8">
+        <v>8115.8571428571404</v>
+      </c>
+      <c r="Q16" s="9">
+        <v>0.11078306774855699</v>
+      </c>
+      <c r="R16" s="21">
+        <v>4.7930858460509401E-2</v>
+      </c>
+      <c r="S16" s="8">
+        <v>19462</v>
+      </c>
+      <c r="T16" s="9">
+        <v>0.41701043792298498</v>
+      </c>
+      <c r="V16" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="W16" s="6">
+        <v>4207.3571428571404</v>
+      </c>
+      <c r="X16" s="7">
+        <v>0.116835099827458</v>
+      </c>
+      <c r="Y16" s="22">
+        <v>6.3901668845389795E-2</v>
+      </c>
+      <c r="Z16" s="6">
+        <v>23133</v>
+      </c>
+      <c r="AA16" s="7">
+        <v>0.181876848781271</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A17" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="12">
+        <v>56096.142857142797</v>
+      </c>
+      <c r="C17" s="13">
+        <v>0.57607271223958501</v>
+      </c>
+      <c r="D17" s="19">
+        <v>2.2143106350576602E-2</v>
+      </c>
+      <c r="E17" s="12">
+        <v>31961</v>
+      </c>
+      <c r="F17" s="13">
+        <v>1.7551435454817701</v>
+      </c>
+      <c r="O17" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="P17" s="8">
+        <v>11983.4285714285</v>
+      </c>
+      <c r="Q17" s="9">
+        <v>0.17140064236838401</v>
+      </c>
+      <c r="R17" s="21">
+        <v>7.0931286061704193E-2</v>
+      </c>
+      <c r="S17" s="8">
+        <v>33801</v>
+      </c>
+      <c r="T17" s="9">
+        <v>0.35452881782871998</v>
+      </c>
+      <c r="V17" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="W17" s="6">
+        <v>8932.0714285714294</v>
+      </c>
+      <c r="X17" s="7">
+        <v>0.63893366885542402</v>
+      </c>
+      <c r="Y17" s="22">
+        <v>9.5858423497988704E-2</v>
+      </c>
+      <c r="Z17" s="6">
+        <v>49905</v>
+      </c>
+      <c r="AA17" s="7">
+        <v>0.17898149340890501</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A18" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="12">
+        <v>17780.785714285699</v>
+      </c>
+      <c r="C18" s="13">
+        <v>0.402965643175977</v>
+      </c>
+      <c r="D18" s="19">
+        <v>3.8637212721597501E-2</v>
+      </c>
+      <c r="E18" s="12">
+        <v>14619</v>
+      </c>
+      <c r="F18" s="13">
+        <v>1.21627920612119</v>
+      </c>
+      <c r="O18" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="P18" s="8">
+        <v>8832.3571428571395</v>
+      </c>
+      <c r="Q18" s="9">
+        <v>-0.14396776717041901</v>
+      </c>
+      <c r="R18" s="21">
+        <v>9.27595772039497E-2</v>
+      </c>
+      <c r="S18" s="8">
+        <v>25509</v>
+      </c>
+      <c r="T18" s="9">
+        <v>0.34624474275185702</v>
+      </c>
+      <c r="V18" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="W18" s="6">
+        <v>6514.7857142857101</v>
+      </c>
+      <c r="X18" s="7">
+        <v>0.22213884682898</v>
+      </c>
+      <c r="Y18" s="22">
+        <v>0.103193833806615</v>
+      </c>
+      <c r="Z18" s="6">
+        <v>37101</v>
+      </c>
+      <c r="AA18" s="7">
+        <v>0.17559596006268599</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A19" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="12">
+        <v>2658.5</v>
+      </c>
+      <c r="C19" s="13">
+        <v>0.40443756839364498</v>
+      </c>
+      <c r="D19" s="19">
+        <v>3.8555576452886903E-2</v>
+      </c>
+      <c r="E19" s="12">
+        <v>2269</v>
+      </c>
+      <c r="F19" s="13">
+        <v>1.17166152490083</v>
+      </c>
+      <c r="O19" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="P19" s="8">
+        <v>22696.285714285699</v>
+      </c>
+      <c r="Q19" s="9">
+        <v>-3.3336781196570797E-2</v>
+      </c>
+      <c r="R19" s="21">
+        <v>3.9751627075544103E-2</v>
+      </c>
+      <c r="S19" s="8">
+        <v>66924</v>
+      </c>
+      <c r="T19" s="9">
+        <v>0.33913522375060801</v>
+      </c>
+      <c r="V19" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="W19" s="6">
+        <v>10145.1428571428</v>
+      </c>
+      <c r="X19" s="7">
+        <v>0.18533849646147599</v>
+      </c>
+      <c r="Y19" s="22">
+        <v>4.7193590176861498E-2</v>
+      </c>
+      <c r="Z19" s="6">
+        <v>60366</v>
+      </c>
+      <c r="AA19" s="7">
+        <v>0.16806054496144901</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="F20"/>
+      <c r="O20" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="P20" s="8">
+        <v>21416.214285714199</v>
+      </c>
+      <c r="Q20" s="9">
+        <v>-1.9904156696609599E-2</v>
+      </c>
+      <c r="R20" s="21">
+        <v>6.3683390755335495E-2</v>
+      </c>
+      <c r="S20" s="8">
+        <v>63913</v>
+      </c>
+      <c r="T20" s="9">
+        <v>0.33508385282672198</v>
+      </c>
+      <c r="V20" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="W20" s="6">
+        <v>129.642857142857</v>
+      </c>
+      <c r="X20" s="7">
+        <v>0.95792880258899604</v>
+      </c>
+      <c r="Y20" s="22">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="6">
+        <v>776</v>
+      </c>
+      <c r="AA20" s="7">
+        <v>0.16706553755522799</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="F21"/>
+      <c r="V21" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="W21" s="6">
+        <v>5899.7857142857101</v>
+      </c>
+      <c r="X21" s="7">
+        <v>4.2272893611114699E-2</v>
+      </c>
+      <c r="Y21" s="22">
+        <v>7.3804133322033394E-2</v>
+      </c>
+      <c r="Z21" s="6">
+        <v>37191</v>
+      </c>
+      <c r="AA21" s="7">
+        <v>0.15863476954870001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A22" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="F22"/>
+      <c r="V22" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="W22" s="6">
+        <v>4951.4285714285697</v>
+      </c>
+      <c r="X22" s="7">
+        <v>-0.68232873385178605</v>
+      </c>
+      <c r="Y22" s="22">
+        <v>0.13238603577610999</v>
+      </c>
+      <c r="Z22" s="6">
+        <v>36078</v>
+      </c>
+      <c r="AA22" s="7">
+        <v>0.137242324170646</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A23" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="F23"/>
+      <c r="V23" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="W23" s="6">
+        <v>120.5</v>
+      </c>
+      <c r="X23" s="7">
+        <v>-0.92914146505376305</v>
+      </c>
+      <c r="Y23" s="22">
+        <v>0.77237700059276804</v>
+      </c>
+      <c r="Z23" s="6">
+        <v>2954</v>
+      </c>
+      <c r="AA23" s="7">
+        <v>4.0792146242383198E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A24" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24"/>
+      <c r="W24"/>
+      <c r="X24"/>
+      <c r="Y24"/>
+      <c r="Z24"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="F25"/>
+      <c r="W25"/>
+      <c r="X25"/>
+      <c r="Y25"/>
+      <c r="Z25"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="F26"/>
+      <c r="W26"/>
+      <c r="X26"/>
+      <c r="Y26"/>
+      <c r="Z26"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="F27"/>
+      <c r="W27"/>
+      <c r="X27"/>
+      <c r="Y27"/>
+      <c r="Z27"/>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="F28"/>
+      <c r="W28"/>
+      <c r="X28"/>
+      <c r="Y28"/>
+      <c r="Z28"/>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="F29"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="F30"/>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="F31"/>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="F32"/>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F33"/>
+    </row>
+    <row r="34" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F34"/>
+    </row>
+    <row r="35" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F35"/>
+    </row>
+    <row r="36" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F36"/>
+    </row>
+    <row r="37" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F37"/>
+    </row>
+    <row r="38" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F38"/>
+    </row>
+    <row r="39" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F39"/>
+    </row>
+    <row r="40" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F40"/>
+    </row>
+    <row r="41" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F41"/>
+    </row>
+    <row r="42" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F42"/>
+    </row>
+    <row r="43" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F43"/>
+    </row>
+    <row r="44" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F44"/>
+    </row>
+    <row r="45" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F45"/>
+    </row>
+    <row r="46" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F46"/>
+    </row>
+    <row r="47" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F47"/>
+    </row>
+    <row r="48" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F48"/>
+    </row>
+    <row r="49" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F49"/>
+    </row>
+    <row r="50" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F50"/>
+    </row>
+    <row r="51" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F51"/>
+    </row>
+    <row r="52" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F52"/>
+    </row>
+    <row r="53" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F53"/>
+    </row>
+    <row r="54" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F54"/>
+    </row>
+    <row r="55" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F55"/>
+    </row>
+    <row r="56" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F56"/>
+    </row>
+    <row r="57" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F57"/>
+    </row>
+    <row r="58" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F58"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:AA1"/>
+    <mergeCell ref="A2:AA2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="H3:M3"/>
+    <mergeCell ref="O3:T3"/>
+    <mergeCell ref="V3:AA3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>